--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SkSTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5598C802-3E72-473D-9358-F1E5FFF22A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1007B7C-DAA7-4654-91A2-679CC1E40AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" xr2:uid="{B86BECAF-3DA1-4F08-B61E-0FE102FEBCC3}"/>
   </bookViews>
@@ -22,77 +22,77 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Internal Shoulder Rotation Con (210°/s)</t>
-  </si>
-  <si>
-    <t>External Shoulder Rotation Con (210°/s)</t>
-  </si>
-  <si>
-    <t>Internal Shoulder Rotation Ecc (210°/s)</t>
-  </si>
-  <si>
-    <t>External Shoulder Rotation Ecc (210°/s)</t>
-  </si>
-  <si>
-    <t>Internal Shoulder Rotation Ecc (300°/s)</t>
-  </si>
-  <si>
-    <t>External Shoulder Rotation Ecc (300°/s)</t>
-  </si>
-  <si>
-    <t>Internal Shoulder Rotation Con (300°/s)</t>
-  </si>
-  <si>
-    <t>External Shoulder Rotation Con (300°/s)</t>
-  </si>
-  <si>
-    <t>Serve speed</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Body mass</t>
-  </si>
-  <si>
-    <t>Grip strength</t>
-  </si>
-  <si>
-    <t>Serving arm mass</t>
-  </si>
-  <si>
-    <t>Dominant leg mass</t>
-  </si>
-  <si>
-    <t>Trunk mass</t>
-  </si>
-  <si>
-    <t>Body fat</t>
-  </si>
-  <si>
-    <t>Serving lean arm mass</t>
-  </si>
-  <si>
-    <t>Dominant lean leg mass</t>
-  </si>
-  <si>
-    <t>Lean trunk mass</t>
-  </si>
-  <si>
-    <t>Lean body mass</t>
+    <t>Proband</t>
+  </si>
+  <si>
+    <t>Hmotnost</t>
+  </si>
+  <si>
+    <t>Vnitrni rotace koncentricka (210°/s)</t>
+  </si>
+  <si>
+    <t>Vnejsi rotace koncentricka (210°/s)</t>
+  </si>
+  <si>
+    <t>Vnitrni rotace excentricka (210°/s)</t>
+  </si>
+  <si>
+    <t>Vnejsi rotace excentricka (210°/s)</t>
+  </si>
+  <si>
+    <t>Vnitrni rotace excentricka (300°/s)</t>
+  </si>
+  <si>
+    <t>Vnejsi rotace excentricka (300°/s)</t>
+  </si>
+  <si>
+    <t>Vnitrni rotace koncentricka (300°/s)</t>
+  </si>
+  <si>
+    <t>Vnejsi rotace koncentricka (300°/s)</t>
+  </si>
+  <si>
+    <t>Rychlost podani</t>
+  </si>
+  <si>
+    <t>Vek</t>
+  </si>
+  <si>
+    <t>Vyska</t>
+  </si>
+  <si>
+    <t>Sila uchopu</t>
+  </si>
+  <si>
+    <t>Dominantni paze</t>
+  </si>
+  <si>
+    <t>Dominantni noha</t>
+  </si>
+  <si>
+    <t>Trupova hmotnost</t>
+  </si>
+  <si>
+    <t>Telesny tuk</t>
+  </si>
+  <si>
+    <t>Dominantni paze - beztukova</t>
+  </si>
+  <si>
+    <t>Dominantni noha - beztukova</t>
+  </si>
+  <si>
+    <t>Trup - betukovy</t>
+  </si>
+  <si>
+    <t>Beztukova hmota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +244,14 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="33">
@@ -587,8 +595,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -967,64 +976,86 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1036,7 +1067,7 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2062,5 +2093,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>